--- a/excel.xlsx
+++ b/excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>Журнал регистрации измерения температуры работников для профилактики коронавируса</t>
   </si>
@@ -49,9 +49,6 @@
     <t/>
   </si>
   <si>
-    <t>2-03-2021 06:36</t>
-  </si>
-  <si>
     <t>2-03-2021 06:37</t>
   </si>
   <si>
@@ -82,21 +79,6 @@
     <t>402236385</t>
   </si>
   <si>
-    <t>2-03-2021 06:51</t>
-  </si>
-  <si>
-    <t>2-03-2021 06:52</t>
-  </si>
-  <si>
-    <t>2-03-2021 06:53</t>
-  </si>
-  <si>
-    <t>2-03-2021 07:04</t>
-  </si>
-  <si>
-    <t>2-03-2021 07:21</t>
-  </si>
-  <si>
     <t>2-03-2021 07:44</t>
   </si>
   <si>
@@ -235,9 +217,6 @@
     <t>5206405004</t>
   </si>
   <si>
-    <t>2-03-2021 07:54</t>
-  </si>
-  <si>
     <t>2-03-2021 07:55</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>U20463529</t>
   </si>
   <si>
-    <t>2-03-2021 08:04</t>
-  </si>
-  <si>
     <t>2-03-2021 08:06</t>
   </si>
   <si>
@@ -403,21 +379,6 @@
     <t>401496897</t>
   </si>
   <si>
-    <t>2-03-2021 08:08</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:09</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:10</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:12</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:14</t>
-  </si>
-  <si>
     <t>2-03-2021 08:16</t>
   </si>
   <si>
@@ -442,21 +403,6 @@
     <t>4518883735</t>
   </si>
   <si>
-    <t>2-03-2021 08:20</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:21</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:23</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:24</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:29</t>
-  </si>
-  <si>
     <t>2-03-2021 08:39</t>
   </si>
   <si>
@@ -467,9 +413,6 @@
   </si>
   <si>
     <t>5715417654</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:40</t>
   </si>
   <si>
     <t>2-03-2021 08:46</t>
@@ -531,7 +474,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,14 +816,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H39"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -940,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -949,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,16 +903,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>36.6</v>
@@ -977,19 +923,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,16 +943,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>36.6</v>
@@ -1017,19 +963,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>36.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,19 +983,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>36.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,19 +1003,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,19 +1023,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>36.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,16 +1043,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>36.5</v>
@@ -1117,19 +1063,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F13">
-        <v>31</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,19 +1083,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,19 +1103,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F15">
-        <v>36.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,19 +1123,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>36.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,16 +1143,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>36.7</v>
@@ -1217,19 +1163,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,19 +1183,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F19">
-        <v>26</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,19 +1203,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F20">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,19 +1223,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,19 +1243,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,19 +1263,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F23">
-        <v>36.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,19 +1283,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,19 +1303,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F25">
-        <v>36.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,19 +1323,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F26">
-        <v>36.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,19 +1343,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F27">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,19 +1363,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>36.4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,19 +1383,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,19 +1403,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,19 +1423,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>27</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,19 +1443,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F32">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,19 +1463,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F33">
-        <v>36.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,19 +1483,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F34">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,16 +1503,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>36.4</v>
@@ -1577,16 +1523,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F36">
         <v>36.4</v>
@@ -1597,19 +1543,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F37">
-        <v>36.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,19 +1563,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="F38">
-        <v>29</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,958 +1583,18 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F39">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" t="s">
-        <v>141</v>
-      </c>
-      <c r="E75" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" t="s">
-        <v>142</v>
-      </c>
-      <c r="F77">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" t="s">
-        <v>156</v>
-      </c>
-      <c r="F85">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" t="s">
-        <v>157</v>
-      </c>
-      <c r="D86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86">
         <v>26</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>Журнал регистрации измерения температуры работников для профилактики коронавируса</t>
   </si>
@@ -40,7 +40,7 @@
     <t>ФИО должность работника, проводившего измерения температуры</t>
   </si>
   <si>
-    <t>2-03-2021 06:32</t>
+    <t>2.03.2021</t>
   </si>
   <si>
     <t>Абрамовский Александр</t>
@@ -49,15 +49,9 @@
     <t/>
   </si>
   <si>
-    <t>2-03-2021 06:37</t>
-  </si>
-  <si>
     <t>Стаханов</t>
   </si>
   <si>
-    <t>2-03-2021 06:41</t>
-  </si>
-  <si>
     <t>JUMAKHON KHUDOIBERDIEV AZAMATKHONOVICH</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>402755695</t>
   </si>
   <si>
-    <t>2-03-2021 06:47</t>
-  </si>
-  <si>
     <t>MADATKHON DUSTMURODI</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>402236385</t>
   </si>
   <si>
-    <t>2-03-2021 07:44</t>
-  </si>
-  <si>
     <t>AMIRGALI UTALIEV IMANGALIEVICH</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>6314039828</t>
   </si>
   <si>
-    <t>2-03-2021 07:45</t>
-  </si>
-  <si>
     <t>MUSTAFA TARHAN</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>4513302462</t>
   </si>
   <si>
-    <t>2-03-2021 07:46</t>
-  </si>
-  <si>
     <t>GAKHRIMAN SAPARKULIEV PIRMUKHAMMETOVICH</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>KA0083311</t>
   </si>
   <si>
-    <t>2-03-2021 07:47</t>
-  </si>
-  <si>
     <t>ALTYNBEK KARAKULOV</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t>AC1873220</t>
   </si>
   <si>
-    <t>2-03-2021 07:48</t>
-  </si>
-  <si>
     <t>SALOKHIDDIN BERDIEV DAVLATOVICH</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t>AB8533161</t>
   </si>
   <si>
-    <t>2-03-2021 07:49</t>
-  </si>
-  <si>
     <t>HUSNIDDIN KAMOLOV TURAQUL UGLI</t>
   </si>
   <si>
@@ -163,9 +136,6 @@
     <t>AA5414998</t>
   </si>
   <si>
-    <t>2-03-2021 07:50</t>
-  </si>
-  <si>
     <t>ABDUSHUKUR SHARIPOV ABDURAKHIMOVICH</t>
   </si>
   <si>
@@ -175,9 +145,6 @@
     <t>401072029</t>
   </si>
   <si>
-    <t>2-03-2021 07:51</t>
-  </si>
-  <si>
     <t>AZIZBEK SABUROV ZAHIDJON UGLI</t>
   </si>
   <si>
@@ -196,18 +163,12 @@
     <t>4518696064</t>
   </si>
   <si>
-    <t>2-03-2021 07:52</t>
-  </si>
-  <si>
     <t>KARIMJON SABZAEV GURKOVICH</t>
   </si>
   <si>
     <t>401318793</t>
   </si>
   <si>
-    <t>2-03-2021 07:53</t>
-  </si>
-  <si>
     <t>KONSTANTIN GRAB VASILEVICH</t>
   </si>
   <si>
@@ -217,9 +178,6 @@
     <t>5206405004</t>
   </si>
   <si>
-    <t>2-03-2021 07:55</t>
-  </si>
-  <si>
     <t>AKIF MUZAFAROV</t>
   </si>
   <si>
@@ -229,9 +187,6 @@
     <t>8509427447</t>
   </si>
   <si>
-    <t>2-03-2021 07:56</t>
-  </si>
-  <si>
     <t>UTKIRBEK SULTONOV MIRZAYEVICH</t>
   </si>
   <si>
@@ -241,9 +196,6 @@
     <t>AB4411264</t>
   </si>
   <si>
-    <t>2-03-2021 07:58</t>
-  </si>
-  <si>
     <t>IBRAHIM DEMIR</t>
   </si>
   <si>
@@ -262,9 +214,6 @@
     <t>U20501036</t>
   </si>
   <si>
-    <t>2-03-2021 07:59</t>
-  </si>
-  <si>
     <t>VLADISLAV ARKHIPOVSKIY ALEKSEEVICH</t>
   </si>
   <si>
@@ -274,18 +223,12 @@
     <t>4519508825</t>
   </si>
   <si>
-    <t>2-03-2021 08:00</t>
-  </si>
-  <si>
     <t>ARISLANBAY BALTABAEV ASEMBAY ULI</t>
   </si>
   <si>
     <t>KA0711697</t>
   </si>
   <si>
-    <t>2-03-2021 08:01</t>
-  </si>
-  <si>
     <t>EDILBEK TEMIRALIEV ADILBEKOVICH</t>
   </si>
   <si>
@@ -304,9 +247,6 @@
     <t>400919249</t>
   </si>
   <si>
-    <t>2-03-2021 08:02</t>
-  </si>
-  <si>
     <t>GULNORA VALIEVA MAKHMUDJONOVNA</t>
   </si>
   <si>
@@ -325,9 +265,6 @@
     <t>2018180681</t>
   </si>
   <si>
-    <t>2-03-2021 08:03</t>
-  </si>
-  <si>
     <t>EMRE OGAN</t>
   </si>
   <si>
@@ -337,9 +274,6 @@
     <t>U20463529</t>
   </si>
   <si>
-    <t>2-03-2021 08:06</t>
-  </si>
-  <si>
     <t>UMEDJON BASIROV NURIDDINOVICH</t>
   </si>
   <si>
@@ -358,9 +292,6 @@
     <t>8216814789</t>
   </si>
   <si>
-    <t>2-03-2021 08:07</t>
-  </si>
-  <si>
     <t>KUBILAY BILDIREN</t>
   </si>
   <si>
@@ -379,9 +310,6 @@
     <t>401496897</t>
   </si>
   <si>
-    <t>2-03-2021 08:16</t>
-  </si>
-  <si>
     <t>SERHAT BOYRAZ</t>
   </si>
   <si>
@@ -391,9 +319,6 @@
     <t>U14583169</t>
   </si>
   <si>
-    <t>2-03-2021 08:19</t>
-  </si>
-  <si>
     <t>LYUBOV PATKINA VLADIMIROVNA</t>
   </si>
   <si>
@@ -403,9 +328,6 @@
     <t>4518883735</t>
   </si>
   <si>
-    <t>2-03-2021 08:39</t>
-  </si>
-  <si>
     <t>DARYA SIDOROVA SERGEEVNA</t>
   </si>
   <si>
@@ -413,9 +335,6 @@
   </si>
   <si>
     <t>5715417654</t>
-  </si>
-  <si>
-    <t>2-03-2021 08:46</t>
   </si>
   <si>
     <t>DILMUROD ELMONOV ORZIKULOVICH</t>
@@ -820,10 +739,11 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -903,16 +823,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5">
         <v>36.6</v>
@@ -923,16 +843,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
       <c r="F6">
         <v>36.6</v>
@@ -943,16 +863,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>36.6</v>
@@ -963,16 +883,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>22</v>
@@ -983,16 +903,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>26</v>
@@ -1003,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
       </c>
       <c r="F10">
         <v>36.5</v>
@@ -1023,16 +943,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>27</v>
@@ -1043,16 +963,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>36.5</v>
@@ -1063,16 +983,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>36.4</v>
@@ -1083,16 +1003,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>36.4</v>
@@ -1103,16 +1023,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>32</v>
@@ -1123,16 +1043,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>27</v>
@@ -1143,16 +1063,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>36.7</v>
@@ -1163,16 +1083,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <v>36.4</v>
@@ -1183,16 +1103,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>36.4</v>
@@ -1203,16 +1123,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F20">
         <v>23</v>
@@ -1223,16 +1143,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>36.4</v>
@@ -1243,16 +1163,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>28</v>
@@ -1263,16 +1183,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>29</v>
@@ -1283,16 +1203,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F24">
         <v>32</v>
@@ -1303,16 +1223,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>13</v>
@@ -1323,16 +1243,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F26">
         <v>23</v>
@@ -1343,16 +1263,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F27">
         <v>36.5</v>
@@ -1363,16 +1283,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1383,16 +1303,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <v>36.4</v>
@@ -1403,16 +1323,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F30">
         <v>27</v>
@@ -1423,16 +1343,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F31">
         <v>36.5</v>
@@ -1443,16 +1363,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F32">
         <v>36.3</v>
@@ -1463,16 +1383,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F33">
         <v>29</v>
@@ -1483,16 +1403,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F34">
         <v>28</v>
@@ -1503,16 +1423,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>36.4</v>
@@ -1523,16 +1443,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <v>36.4</v>
@@ -1543,16 +1463,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <v>29</v>
@@ -1563,16 +1483,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F38">
         <v>36.6</v>
@@ -1583,16 +1503,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>26</v>
